--- a/doc/ue_lightmass.xlsx
+++ b/doc/ue_lightmass.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA81382-9D53-4134-8C04-04A88FF01AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原理" sheetId="3" r:id="rId1"/>
     <sheet name="lightmap怎么和mesh一起渲染" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="怎么构建的lightmap" sheetId="4" r:id="rId4"/>
+    <sheet name="world怎么加载的" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="怎么构建的lightmap" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>{</t>
   </si>
@@ -313,14 +315,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>这个ue4烘焙失败（仅构建灯光：Build Lighting Only），我也上网查了很多解决方案：包括 重新编译UnrealLightmass.cpp、设置Swarm等等。</t>
+  </si>
+  <si>
+    <t>最终解决方案：</t>
+  </si>
+  <si>
+    <t>第一步：打开ue4c++项目或打开UE4.sln先将vs中Dubug Editor模式改为Development Editor</t>
+  </si>
+  <si>
+    <t>第二步：在vs中找到UnrealLightmass.cpp重新编译</t>
+  </si>
+  <si>
+    <t>第三部：将vs中Development Editor改回Dubug Editor，启动重新Build Lighting Only即可</t>
+  </si>
+  <si>
+    <t>问题估计出在ue4本身，缺少lib库</t>
+  </si>
+  <si>
     <t>https://papalqi.cn/ue4-lightmass%E6%95%B0%E6%8D%AE%E6%B5%81%E7%A8%8B/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个流关卡，每一个关卡保存自己依赖的lightmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +417,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -410,10 +443,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -428,9 +462,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,7 +501,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="https://pic4.zhimg.com/80/v2-bf1c587ce33ca4b262447f521b144ff7_720w.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -773,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -793,6 +829,11 @@
         <v>67</v>
       </c>
     </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="13" spans="2:2" ht="36" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>61</v>
@@ -841,11 +882,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:C95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1191,7 +1232,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFEC8B7-1982-4FA4-A442-1F48D72A7F05}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1233,24 +1290,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B7:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{53C1F332-FC25-4942-9A50-2EC353AE58BB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/ue_lightmass.xlsx
+++ b/doc/ue_lightmass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA81382-9D53-4134-8C04-04A88FF01AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE2FAAC-58F4-433C-B528-2A786C2F8AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原理" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>{</t>
   </si>
@@ -339,6 +339,45 @@
   <si>
     <t>多个流关卡，每一个关卡保存自己依赖的lightmap</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldPackage = LoadPackage(nullptr, *URL.Map, (WorldContext.WorldType == EWorldType::PIE ? LOAD_PackageForPIE : LOAD_None));</t>
+  </si>
+  <si>
+    <t>void UMapBuildDataRegistry::Serialize(FArchive&amp; Ar)</t>
+  </si>
+  <si>
+    <t>!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个里面就是所有的lightmap信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面包含了所有物体的渲染信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ULevel::Serialize( FArchive&amp; Ar )</t>
+  </si>
+  <si>
+    <t>初始化所有信息，里面有所有对象的数据信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化其变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMapBuildDataRegistry* MapBuildData;</t>
   </si>
 </sst>
 </file>
@@ -540,6 +579,55 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>236295</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>113184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A10CC4A-4786-B87F-B9DB-75087BCC22CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="2228850"/>
+          <a:ext cx="14638095" cy="8923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -812,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -885,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
@@ -1233,17 +1321,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFEC8B7-1982-4FA4-A442-1F48D72A7F05}">
-  <dimension ref="A1"/>
+  <dimension ref="B5:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
